--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>588200</v>
+      </c>
+      <c r="E8" s="3">
         <v>592300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>537000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>557200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>554700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>517500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>438900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>439700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>381800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>393100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>380000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>416400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>380600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>404200</v>
+      </c>
+      <c r="E9" s="3">
         <v>410100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>384500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>398000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>402700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>392100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>344900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>327300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>263700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>269300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>260500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>274100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>255500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E10" s="3">
         <v>182200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>152500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>159200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>152000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>125400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>94000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>112400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>123800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>142300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E12" s="3">
         <v>34300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>46300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>39900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,17 +1011,17 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>10200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="3">
         <v>2000</v>
       </c>
       <c r="F15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2500</v>
       </c>
       <c r="J15" s="3">
         <v>2500</v>
       </c>
       <c r="K15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L15" s="3">
         <v>3200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3300</v>
       </c>
       <c r="M15" s="3">
         <v>3300</v>
       </c>
       <c r="N15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>574300</v>
+      </c>
+      <c r="E17" s="3">
         <v>573800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>545100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>547800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>548700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>539000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>493300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>472700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>407200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>419200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>398000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>413700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>373000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E18" s="3">
         <v>18500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-54400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E21" s="3">
         <v>101200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>76900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>88200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>58200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>65400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>69400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
         <v>9500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-29200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-35500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,11 +1645,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1597,14 +1657,14 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>6900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E41" s="3">
         <v>87000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>261700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>242700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>284900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2144,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>316400</v>
+      </c>
+      <c r="E43" s="3">
         <v>294100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>303600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>295300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>268800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>236100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>267700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>228000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>251900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>215100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>263700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>254800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>283300</v>
+      </c>
+      <c r="E44" s="3">
         <v>269500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>263800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>234500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>230100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>232100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>220000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>196300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>182100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>181400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>177900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>163200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>158500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E45" s="3">
         <v>105000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>106800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>115800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>240400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>750200</v>
+      </c>
+      <c r="E46" s="3">
         <v>755600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>804200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>887200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>684700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>785800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>613900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>612600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>648300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>748400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>619700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>614900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>751700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E47" s="3">
         <v>162100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>158900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>160700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>162600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>160600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>169500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>163800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>161000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>154000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>144300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>141900</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2825500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2683600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2536300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2125300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2053900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1950400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2037200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1962500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1854000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1740400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1693500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1648900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1586800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>418900</v>
+      </c>
+      <c r="E49" s="3">
         <v>415900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>418600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>411400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>407900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>410300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>414800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>415800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>409400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>398900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>388100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>381700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>377400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>360700</v>
+      </c>
+      <c r="E52" s="3">
         <v>349800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>344300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>330700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>320600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>322700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>308900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>259400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>243000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>246700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>233100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>167300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>167100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4513700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4367100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4262300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3915300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3629700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3629600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3544300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3414100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3315600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3288200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3078700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2954700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2883100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,87 +2748,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E57" s="3">
         <v>141700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>157300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>160900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>165300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>149500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>157500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>115100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>101100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>84000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>79500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E58" s="3">
         <v>30000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>45300</v>
       </c>
       <c r="J58" s="3">
         <v>45300</v>
       </c>
       <c r="K58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="L58" s="3">
         <v>45600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -2707,184 +2840,199 @@
       <c r="P58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>355900</v>
+      </c>
+      <c r="E59" s="3">
         <v>330000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>324900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>308300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>292300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>250400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>252300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>263700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>225900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>207000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>225000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>538400</v>
+      </c>
+      <c r="E60" s="3">
         <v>501700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>490100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>485500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>474900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>463400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>447200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>466500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>386600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>331000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>307500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>325500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>278600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1542700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1444000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1383000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1392900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1136800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1151600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1072900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>978400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>976100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>996500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>830800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>848500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>847100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>407300</v>
+      </c>
+      <c r="E62" s="3">
         <v>415500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>416000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>120800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>132000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>130300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>132300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>121200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>117800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>113000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>109900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2507400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2376100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2299100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2007500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1749200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1754900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1661800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1576900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1482400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1443400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1251400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1220000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1172100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E72" s="3">
         <v>237300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>234100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>245600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>243100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>252100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>277800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>286000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>308100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>332800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>346400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>297500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>290800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2006300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1990900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1963200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1907700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1880600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1874700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1882400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1837200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1833200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1844800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1827300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1734600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1710900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E83" s="3">
         <v>82300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>84000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>80800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>79500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>62500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E89" s="3">
         <v>136800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>112900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>103400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>53800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>76000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>153700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>98600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-218700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-163400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-166100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-145000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-158400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-186800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-146600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-157300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-147700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-96800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-109800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-139400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-147800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-177000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-185800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-149000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-138200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-160900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-174900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-166000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-128100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-251600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-164300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>254000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>91700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>164900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>277100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-131800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>218300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-90400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>82200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-154800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>233700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>530500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>591700</v>
+      </c>
+      <c r="F8" s="3">
         <v>588200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>592300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>537000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>557200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>554700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>517500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>438900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>439700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>381800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>393100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>380000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>416400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>380600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>385600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>410900</v>
+      </c>
+      <c r="F9" s="3">
         <v>404200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>410100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>384500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>398000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>402700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>392100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>344900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>327300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>263700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>269300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>260500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>274100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>255500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>180800</v>
+      </c>
+      <c r="F10" s="3">
         <v>184000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>182200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>152500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>159200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>152000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>125400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>94000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>112400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>118100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>123800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>119500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>142300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>125100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F12" s="3">
         <v>32200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>34300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>33500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>29400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>28900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>31400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>33400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>36900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>40100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>46300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>45100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>39900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>34400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,20 +1054,20 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>10200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1035,55 +1075,67 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2400</v>
       </c>
       <c r="J15" s="3">
         <v>2500</v>
       </c>
       <c r="K15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>577600</v>
+      </c>
+      <c r="F17" s="3">
         <v>574300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>573800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>545100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>547800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>548700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>539000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>493300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>472700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>407200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>419200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>398000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>413700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>373000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F18" s="3">
         <v>13900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>18500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-21500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-54400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-33000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-25400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,234 +1288,264 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1400</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>101300</v>
+      </c>
+      <c r="F21" s="3">
         <v>102900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>101200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>76900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>90300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>88200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>58200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>24400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>36800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>38100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>35700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>45600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>65400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>69400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F22" s="3">
         <v>9300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>11200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>14900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>14100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>9300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-18300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-35300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-64700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-36300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-23400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-25400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-18400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-7200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-9700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-29200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-9900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F26" s="3">
         <v>8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-25600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-35500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-26400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-13900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-25700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-26800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1648,29 +1770,29 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>6900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1924,105 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-34000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-19900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-24600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-34000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-19900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-24600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>304300</v>
+      </c>
+      <c r="F41" s="3">
         <v>47800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>87000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>129900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>261700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>43400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>44500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>54800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>71400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>161800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>242700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>160600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>130100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>284900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2327,385 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>270400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>330700</v>
+      </c>
+      <c r="F43" s="3">
         <v>316400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>294100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>303600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>295300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>268800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>236100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>267700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>228000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>251900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>215100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>263700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>254800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>312700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>294400</v>
+      </c>
+      <c r="F44" s="3">
         <v>283300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>269500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>263800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>234500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>230100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>232100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>220000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>196300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>182100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>181400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>177900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>163200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>158500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F45" s="3">
         <v>102700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>105000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>106800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>90600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>115800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>240400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>77100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>76400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>72400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>66200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>57800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>53600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>921500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="F46" s="3">
         <v>750200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>755600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>804200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>887200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>684700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>785800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>613900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>612600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>648300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>748400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>619700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>614900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>751700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>160200</v>
+      </c>
+      <c r="F47" s="3">
         <v>158400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>162100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>158900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>160700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>162600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>160600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>169500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>163800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>161000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>154000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>144300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>141900</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3020800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2895200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2825500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2683600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2536300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2125300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2053900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1950400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2037200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1962500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1854000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1740400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1693500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1648900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1586800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>424800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>417500</v>
+      </c>
+      <c r="F49" s="3">
         <v>418900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>415900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>418600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>411400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>407900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>410300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>414800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>415800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>409400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>398900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>388100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>381700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>377400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>378500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>365300</v>
+      </c>
+      <c r="F52" s="3">
         <v>360700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>349800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>344300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>330700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>320600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>322700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>308900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>259400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>243000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>246700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>233100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>167300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>167100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4904400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4883900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4513700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4367100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4262300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3915300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3629700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3629600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3544300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3414100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3315600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3288200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3078700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2954700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2883100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>183600</v>
+      </c>
+      <c r="F57" s="3">
         <v>152400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>141700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>145500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>157300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>160900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>165300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>149500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>157500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>115100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>101100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>84000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>79500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F58" s="3">
         <v>30100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>30000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>19700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>19900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>21800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>47700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>45300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>45300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>45600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>22900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>19300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>359800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>391200</v>
+      </c>
+      <c r="F59" s="3">
         <v>355900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>330000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>324900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>308300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>292300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>250400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>252300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>263700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>225900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>207000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>204200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>225000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>198800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>565200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>604600</v>
+      </c>
+      <c r="F60" s="3">
         <v>538400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>501700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>490100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>485500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>474900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>463400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>447200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>466500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>386600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>331000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>307500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>325500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>278600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1815500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1821700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1542700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1444000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1383000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1392900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1136800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1151600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1072900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>978400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>976100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>996500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>830800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>848500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>847100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>407500</v>
+      </c>
+      <c r="F62" s="3">
         <v>407300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>415500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>416000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>120800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>132000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>130300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>132300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>121200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>117800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>113000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>109900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>42700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>40700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2831400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2856100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2507400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2376100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2299100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2007500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1749200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1754900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1661800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1576900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1482400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1443400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1251400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1220000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1172100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>245400</v>
+      </c>
+      <c r="F72" s="3">
         <v>243800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>237300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>234100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>245600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>243100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>252100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>277800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>286000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>308100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>332800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>346400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>297500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>290800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2073000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2027800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2006300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1990900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1963200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1907700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1880600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1874700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1882400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1837200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1833200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1844800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1827300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1734600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1710900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-34000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-19900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-24600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F83" s="3">
         <v>88800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>82300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>84000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>80500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>80800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>79500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>77800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>69300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>61600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>60900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>63900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>62500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>61600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>143600</v>
+      </c>
+      <c r="F89" s="3">
         <v>110100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>136800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>46500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>112900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>103400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>57500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>53800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>76000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>96800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>32200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>153700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>98600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>121100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-208700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-218700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-163400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-166100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-145000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-158400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-186800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-146600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-157300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-147700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-96800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-109800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-139400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-147800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-229300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-232800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-177000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-185800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-149000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-41400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-138200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-160900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-174900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-166000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-115500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-128100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-251600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-164300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>276700</v>
+      </c>
+      <c r="F100" s="3">
         <v>83200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>254000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-68600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>77600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>91700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>164900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>277100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4625,89 +5123,101 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>600</v>
       </c>
       <c r="N101" s="3">
+        <v>200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>600</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>256500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-42800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-131800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>218300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-90400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-80900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>82200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>30500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-154800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>233700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>554300</v>
+      </c>
+      <c r="E8" s="3">
         <v>530500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>591700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>588200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>592300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>537000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>557200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>554700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>517500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>438900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>439700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>381800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>393100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>380000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>416400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>380600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>387300</v>
+      </c>
+      <c r="E9" s="3">
         <v>385600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>410900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>404200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>410100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>384500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>398000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>402700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>392100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>344900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>327300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>263700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>269300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>260500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>274100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>255500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="3">
         <v>144900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>180800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>184000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>182200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>152500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>159200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>152000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>125400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>112400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>118100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E12" s="3">
         <v>27600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>46300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>45100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>39900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>34400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,17 +1080,17 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>10200</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2000</v>
       </c>
       <c r="H15" s="3">
         <v>2000</v>
       </c>
       <c r="I15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2500</v>
       </c>
       <c r="M15" s="3">
         <v>2500</v>
       </c>
       <c r="N15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O15" s="3">
         <v>3200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3300</v>
       </c>
       <c r="P15" s="3">
         <v>3300</v>
       </c>
       <c r="Q15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R15" s="3">
         <v>3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>541600</v>
+      </c>
+      <c r="E17" s="3">
         <v>535800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>577600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>574300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>573800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>545100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>547800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>548700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>539000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>493300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>472700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>407200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>419200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>398000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>413700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>373000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-54400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1294,258 +1328,273 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E21" s="3">
         <v>87500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>102900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>101200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>76900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>88200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>58200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>65400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>69400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E22" s="3">
         <v>9500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-64700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,11 +1837,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1788,14 +1849,14 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>6900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1930,99 +2000,105 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E41" s="3">
         <v>232400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>304300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>87000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>261700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>242700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>160600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>284900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E43" s="3">
         <v>270400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>330700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>316400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>294100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>303600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>295300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>268800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>236100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>267700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>228000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>251900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>215100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>263700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>254800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>332900</v>
+      </c>
+      <c r="E44" s="3">
         <v>312700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>294400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>283300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>269500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>263800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>234500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>230100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>232100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>220000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>196300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>182100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>181400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>177900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>163200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>158500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E45" s="3">
         <v>106000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>116300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>102700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>105000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>106800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>115800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>240400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>76400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>72400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="E46" s="3">
         <v>921500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1045700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>750200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>755600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>804200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>887200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>684700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>785800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>613900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>612600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>648300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>748400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>619700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>614900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>751700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E47" s="3">
         <v>158700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>160200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>158400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>162100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>158900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>160700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>162600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>160600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>169500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>163800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>161000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>154000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>144300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>141900</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3188400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3020800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2895200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2825500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2683600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2536300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2125300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2053900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1950400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2037200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1962500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1854000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1740400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1693500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1648900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1586800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>424600</v>
+      </c>
+      <c r="E49" s="3">
         <v>424800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>417500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>418900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>415900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>418600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>411400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>407900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>410300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>414800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>415800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>409400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>398900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>388100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>381700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>377400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E52" s="3">
         <v>378500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>365300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>360700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>349800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>344300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>330700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>320600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>322700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>308900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>259400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>243000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>246700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>233100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>167300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>167100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5203400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4904400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4883900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4513700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4367100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4262300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3915300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3629700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3629600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3544300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3414100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3315600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3288200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3078700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2954700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2883100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,105 +3141,109 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E57" s="3">
         <v>176000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>183600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>152400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>141700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>145500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>157300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>160900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>165300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>149500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>157500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>115100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>101100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>84000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>79500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E58" s="3">
         <v>29500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>45300</v>
       </c>
       <c r="M58" s="3">
         <v>45300</v>
       </c>
       <c r="N58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="O58" s="3">
         <v>45600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3117,220 +3251,235 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>423000</v>
+      </c>
+      <c r="E59" s="3">
         <v>359800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>391200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>355900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>330000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>324900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>308300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>292300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>250400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>252300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>263700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>225900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>207000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>225000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>198800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>624600</v>
+      </c>
+      <c r="E60" s="3">
         <v>565200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>604600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>538400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>501700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>490100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>485500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>474900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>463400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>447200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>466500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>386600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>331000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>307500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>325500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>278600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1814700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1815500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1821700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1542700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1444000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1383000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1392900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1136800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1151600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1072900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>978400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>976100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>996500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>830800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>848500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>847100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>456400</v>
+      </c>
+      <c r="E62" s="3">
         <v>424500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>407500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>407300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>415500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>416000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>120800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>132000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>130300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>132300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>121200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>117800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>113000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>109900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2923400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2831400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2856100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2507400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2376100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2299100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2007500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1749200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1754900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1661800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1576900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1482400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1443400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1251400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1220000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1172100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E72" s="3">
         <v>233000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>245400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>243800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>237300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>234100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>245600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>243100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>252100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>277800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>286000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>308100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>332800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>346400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>297500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>290800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2073000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2027800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2006300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1990900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1963200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1907700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1880600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1874700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1882400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1837200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1833200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1844800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1827300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1734600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1710900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E83" s="3">
         <v>92600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>87100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>88800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>82300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>80500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>61600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>60900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>62500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>61600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E89" s="3">
         <v>156900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>143600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>110100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>136800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>46500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>112900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>103400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>76000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>153700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>98600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>121100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-217600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-208700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-145700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-218700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-163400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-166100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-145000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-158400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-186800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-146600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-157300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-147700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-96800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-109800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-139400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-147800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-229300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-163200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-232800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-177000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-185800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-149000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-138200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-160900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-174900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-166000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-115500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-128100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-251600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-164300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>276700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>83200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>254000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-68600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>91700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>164900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>277100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>256500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-131800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>218300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-90400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-80900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>82200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-154800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>233700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>575600</v>
+      </c>
+      <c r="E8" s="3">
         <v>554300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>530500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>591700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>588200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>592300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>537000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>557200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>554700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>517500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>438900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>439700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>381800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>393100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>380000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>416400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>380600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>391300</v>
+      </c>
+      <c r="E9" s="3">
         <v>387300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>385600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>410900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>404200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>410100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>384500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>398000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>402700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>392100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>344900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>327300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>263700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>269300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>260500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>274100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>255500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>184300</v>
+      </c>
+      <c r="E10" s="3">
         <v>167000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>144900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>180800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>184000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>182200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>152500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>159200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>152000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>125400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>118100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>123800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>119500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>142300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E12" s="3">
         <v>27500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>40100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>46300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>45100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>39900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1083,17 +1102,17 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10200</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,55 +1135,58 @@
         <v>1300</v>
       </c>
       <c r="E15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2000</v>
       </c>
       <c r="I15" s="3">
         <v>2000</v>
       </c>
       <c r="J15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2500</v>
       </c>
       <c r="N15" s="3">
         <v>2500</v>
       </c>
       <c r="O15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P15" s="3">
         <v>3200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3300</v>
       </c>
       <c r="Q15" s="3">
         <v>3300</v>
       </c>
       <c r="R15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S15" s="3">
         <v>3200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>553800</v>
+      </c>
+      <c r="E17" s="3">
         <v>541600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>535800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>577600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>574300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>573800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>545100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>547800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>548700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>539000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>493300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>472700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>407200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>419200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>398000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>413700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>373000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E18" s="3">
         <v>12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-54400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-33000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1355,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1331,270 +1364,285 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E21" s="3">
         <v>109800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>87500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>101300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>102900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>101200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>76900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>90300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>88200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>58200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>45600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>65400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>69400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
         <v>9800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-64700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-35500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,11 +1900,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1852,14 +1912,14 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>6900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2063,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -2003,102 +2072,108 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>317300</v>
+      </c>
+      <c r="E41" s="3">
         <v>350400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>232400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>304300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>87000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>261700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>242700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>284900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E43" s="3">
         <v>249600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>270400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>330700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>316400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>294100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>303600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>295300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>268800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>236100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>267700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>228000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>251900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>215100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>263700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>254800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>334900</v>
+      </c>
+      <c r="E44" s="3">
         <v>332900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>312700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>294400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>283300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>269500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>263800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>234500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>230100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>232100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>220000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>196300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>182100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>181400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>177900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>163200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>158500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E45" s="3">
         <v>108200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>106000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>116300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>102700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>105000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>106800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>115800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>240400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>967600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1041100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>921500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1045700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>750200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>755600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>804200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>887200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>684700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>785800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>613900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>612600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>648300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>748400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>619700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>614900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>751700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E47" s="3">
         <v>162200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>158700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>160200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>158400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>162100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>158900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>160700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>162600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>160600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>169500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>163800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>161000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>154000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>144300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>141900</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3304800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3188400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3020800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2895200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2825500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2683600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2536300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2125300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2053900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1950400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2037200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1962500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1854000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1740400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1693500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1648900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1586800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>425700</v>
+      </c>
+      <c r="E49" s="3">
         <v>424600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>424800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>417500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>418900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>415900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>418600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>411400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>407900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>410300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>414800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>415800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>409400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>398900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>388100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>381700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>377400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>381800</v>
+      </c>
+      <c r="E52" s="3">
         <v>387100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>378500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>365300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>360700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>349800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>344300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>330700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>320600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>322700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>308900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>259400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>243000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>246700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>233100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>167300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>167100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5248700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5203400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4904400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4883900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4513700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4367100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4262300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3915300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3629700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3629600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3544300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3414100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3315600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3288200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3078700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2954700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2883100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,111 +3271,115 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E57" s="3">
         <v>169300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>176000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>183600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>152400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>141700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>145500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>157300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>160900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>165300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>149500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>115100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>101100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>84000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>79500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E58" s="3">
         <v>32300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>45300</v>
       </c>
       <c r="N58" s="3">
         <v>45300</v>
       </c>
       <c r="O58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="P58" s="3">
         <v>45600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3254,232 +3387,247 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>485600</v>
+      </c>
+      <c r="E59" s="3">
         <v>423000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>359800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>391200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>355900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>330000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>324900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>308300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>292300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>250400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>252300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>263700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>225900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>207000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>225000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>641600</v>
+      </c>
+      <c r="E60" s="3">
         <v>624600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>565200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>604600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>538400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>501700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>490100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>485500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>474900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>463400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>447200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>466500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>386600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>331000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>307500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>325500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>278600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1803700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1814700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1815500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1821700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1542700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1444000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1383000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1392900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1136800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1151600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1072900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>978400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>976100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>996500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>830800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>848500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>847100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E62" s="3">
         <v>456400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>424500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>407500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>407300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>415500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>416000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>120800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>132000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>130300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>132300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>121200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>117800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>113000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>109900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2930000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2923400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2831400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2856100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2507400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2376100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2299100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2007500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1749200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1754900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1661800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1576900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1482400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1443400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1251400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1220000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1172100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E72" s="3">
         <v>234900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>233000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>245400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>243800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>237300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>234100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>245600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>243100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>252100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>277800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>286000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>308100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>332800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>346400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>297500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>290800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2318700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2280000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2073000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2027800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2006300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1990900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1963200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1907700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1880600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1874700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1882400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1837200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1833200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1844800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1827300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1734600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1710900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E83" s="3">
         <v>97000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>92600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>88800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>82300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>80500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>60900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>62500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>61600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E89" s="3">
         <v>176600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>156900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>143600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>110100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>136800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>103400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>76000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>96800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>153700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>98600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-229400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-217600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-208700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-145700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-218700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-163400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-166100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-145000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-158400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-186800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-146600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-157300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-147700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-96800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-109800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-139400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-147800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-230600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-229300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-163200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-232800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-177000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-185800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-149000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-138200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-160900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-174900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-166000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-115500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-128100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-251600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-164300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>171800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>276700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>83200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>254000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>91700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>164900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>277100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E102" s="3">
         <v>118000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-71900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>256500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-131800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>218300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-90400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-80900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>82200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-154800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>233700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>664900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>595800</v>
+      </c>
+      <c r="F8" s="3">
         <v>575600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>554300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>530500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>591700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>588200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>592300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>537000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>557200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>554700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>517500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>438900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>439700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>381800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>393100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>380000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>416400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>380600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400100</v>
+      </c>
+      <c r="F9" s="3">
         <v>391300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>387300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>385600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>410900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>404200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>410100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>384500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>398000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>402700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>392100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>344900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>327300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>263700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>269300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>260500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>274100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>255500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>195700</v>
+      </c>
+      <c r="F10" s="3">
         <v>184300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>167000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>144900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>180800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>184000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>182200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>152500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>159200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>152000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>125400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>94000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>112400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>118100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>123800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>119500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>142300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>125100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F12" s="3">
         <v>28800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>27500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>27600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>30500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>32200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>34300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>33500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>29400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>28900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>31400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>33400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>36900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>40100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>46300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>45100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>39900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>34400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,11 +1133,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1105,20 +1145,20 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>10200</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1126,67 +1166,79 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1300</v>
+        <v>5900</v>
       </c>
       <c r="E15" s="3">
         <v>1300</v>
       </c>
       <c r="F15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2400</v>
       </c>
       <c r="N15" s="3">
         <v>2500</v>
       </c>
       <c r="O15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R15" s="3">
         <v>3200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>648600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>566700</v>
+      </c>
+      <c r="F17" s="3">
         <v>553800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>541600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>535800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>577600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>574300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>573800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>545100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>547800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>548700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>539000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>493300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>472700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>407200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>419200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>398000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>413700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>373000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F18" s="3">
         <v>21800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>18500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-21500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-54400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-33000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-26100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-18000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>7600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1412,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1400</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>300</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>300</v>
+      </c>
+      <c r="W20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>134100</v>
+      </c>
+      <c r="F21" s="3">
         <v>124400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>109800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>87500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>101300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>102900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>101200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>76900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>90300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>88200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>58200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>24400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>36800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>38100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>35700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>45600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>65400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>69400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>9500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>14900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>14100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F23" s="3">
         <v>14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-18300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-35300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-64700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-36300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-25400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-18400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-29200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-9200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F26" s="3">
         <v>7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-25600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-35500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-26400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-13900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>4600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F27" s="3">
         <v>6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-25700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-34000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-26800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-13700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,55 +1993,61 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>6900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1400</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-300</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F33" s="3">
         <v>6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-25700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-34000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-19900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-13700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>6700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F35" s="3">
         <v>6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-25700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-34000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-19900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-13700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>6700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>295900</v>
+      </c>
+      <c r="F41" s="3">
         <v>317300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>350400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>232400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>304300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>47800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>87000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>129900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>261700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>44500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>54800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>71400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>161800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>242700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>160600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>130100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>284900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2698,469 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>238700</v>
+      </c>
+      <c r="F43" s="3">
         <v>202800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>249600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>270400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>330700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>316400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>294100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>303600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>295300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>268800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>236100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>267700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>228000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>251900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>215100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>263700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>254800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>349700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>336700</v>
+      </c>
+      <c r="F44" s="3">
         <v>334900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>332900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>312700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>294400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>283300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>269500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>263800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>234500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>230100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>232100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>220000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>196300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>182100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>181400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>177900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>163200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>158500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F45" s="3">
         <v>112500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>108200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>106000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>116300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>102700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>105000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>106800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>90600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>115800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>240400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>103000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>77100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>76400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>72400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>66200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>57800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>53600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>991200</v>
+      </c>
+      <c r="F46" s="3">
         <v>967600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1041100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>921500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1045700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>750200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>755600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>804200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>887200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>684700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>785800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>613900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>612600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>648300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>748400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>619700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>614900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>751700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F47" s="3">
         <v>168800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>162200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>158700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>160200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>158400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>162100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>158900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>160700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>162600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>160600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>169500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>163800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>161000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>154000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>144300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>141900</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3734100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3390900</v>
+      </c>
+      <c r="F48" s="3">
         <v>3304800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3188400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3020800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2895200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2825500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2683600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2536300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2125300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2053900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1950400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2037200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1962500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1854000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1740400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1693500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1648900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1586800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>735500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>421900</v>
+      </c>
+      <c r="F49" s="3">
         <v>425700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>424600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>424800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>417500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>418900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>415900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>418600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>411400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>407900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>410300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>414800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>415800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>409400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>398900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>388100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>381700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>377400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>391900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>368500</v>
+      </c>
+      <c r="F52" s="3">
         <v>381800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>387100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>378500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>365300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>360700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>349800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>344300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>330700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>320600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>322700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>308900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>259400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>243000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>246700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>233100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>167300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>167100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5994500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5349500</v>
+      </c>
+      <c r="F54" s="3">
         <v>5248700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5203400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4904400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4883900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4513700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4367100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4262300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3915300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3629700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3629600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3544300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3414100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3315600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3288200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3078700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2954700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2883100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3532,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>145100</v>
+      </c>
+      <c r="F57" s="3">
         <v>122300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>169300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>176000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>183600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>152400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>141700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>145500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>157300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>160900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>165300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>149500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>157500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>115100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>101100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>84000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>100300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>79500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F58" s="3">
         <v>33700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>32300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>29500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>29800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>30100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>30000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>19700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>19900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>21800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>47700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>45300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>45300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>45600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>22900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>19300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>532800</v>
+      </c>
+      <c r="F59" s="3">
         <v>485600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>423000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>359800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>391200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>355900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>330000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>324900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>308300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>292300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>250400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>252300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>263700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>225900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>207000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>204200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>225000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>198800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>744600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>708400</v>
+      </c>
+      <c r="F60" s="3">
         <v>641600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>624600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>565200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>604600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>538400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>501700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>490100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>485500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>474900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>463400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>447200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>466500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>386600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>331000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>307500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>325500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>278600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2111800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1802700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1803700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1814700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1815500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1821700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1542700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1444000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1383000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1392900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1136800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1151600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1072900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>978400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>976100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>996500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>830800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>848500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>847100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>481100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>451100</v>
+      </c>
+      <c r="F62" s="3">
         <v>456000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>456400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>424500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>407500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>407300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>415500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>416000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>120800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>132000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>130300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>132300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>121200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>117800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>113000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>109900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>40700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3374400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2998000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2930000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2923400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2831400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2856100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2507400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2376100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2299100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2007500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1749200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1754900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1661800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1576900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1482400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1443400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1251400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1220000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1172100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>249100</v>
+      </c>
+      <c r="F72" s="3">
         <v>241700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>234900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>233000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>245400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>243800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>237300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>234100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>245600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>243100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>252100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>277800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>286000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>308100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>332800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>346400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>297500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>290800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2620100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2351500</v>
+      </c>
+      <c r="F76" s="3">
         <v>2318700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2280000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2073000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2027800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2006300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1990900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1963200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1907700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1880600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1874700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1882400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1837200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1833200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1844800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1827300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1734600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1710900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F81" s="3">
         <v>6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-25700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-34000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-19900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-13700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>6700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F83" s="3">
         <v>102500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>97000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>92600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>87100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>88800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>82300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>84000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>80500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>80800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>79500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>77800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>69300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>61600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>60900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>63900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>62500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>61600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>169800</v>
+      </c>
+      <c r="F89" s="3">
         <v>223900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>176600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>156900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>143600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>110100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>136800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>46500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>112900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>103400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>57500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>53800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>76000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>96800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>32200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>153700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>98600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>121100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-229400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-217600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-208700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-145700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-218700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-163400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-166100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-145000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-158400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-186800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-146600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-157300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-147700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-96800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-109800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-139400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-147800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-399600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-182400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-243000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-230600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-229300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-163200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-232800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-177000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-185800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-149000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-41400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-138200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-160900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-174900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-166000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-115500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-128100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-251600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-164300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>171800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>276700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>83200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>254000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-68600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>77600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>91700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>7800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>164900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>277100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-500</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
       </c>
       <c r="I101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>200</v>
       </c>
       <c r="Q101" s="3">
         <v>600</v>
       </c>
       <c r="R101" s="3">
+        <v>200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>600</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-33100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>118000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-71900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>256500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-39300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-42800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-131800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>218300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-16700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-90400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-80900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>82200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>30500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-154800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>233700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>701400</v>
+      </c>
+      <c r="E8" s="3">
         <v>664900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>595800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>575600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>554300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>530500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>591700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>588200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>592300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>537000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>557200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>554700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>517500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>438900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>439700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>381800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>393100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>380000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>416400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>380600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>488400</v>
+      </c>
+      <c r="E9" s="3">
         <v>454000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>391300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>387300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>385600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>410900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>404200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>410100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>384500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>398000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>402700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>392100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>344900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>327300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>263700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>269300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>260500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>274100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>255500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E10" s="3">
         <v>210900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>195700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>184300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>167000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>144900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>180800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>184000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>152500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>159200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>152000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>94000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>112400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>118100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>123800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>119500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>142300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>125100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E12" s="3">
         <v>34500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>32200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>40100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>46300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>45100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>39900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>34400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>6800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1151,17 +1171,17 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>10200</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1172,16 +1192,19 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E15" s="3">
         <v>5900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1300</v>
       </c>
       <c r="F15" s="3">
         <v>1300</v>
@@ -1190,55 +1213,58 @@
         <v>1300</v>
       </c>
       <c r="H15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2000</v>
       </c>
       <c r="L15" s="3">
         <v>2000</v>
       </c>
       <c r="M15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N15" s="3">
         <v>2300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2500</v>
       </c>
       <c r="Q15" s="3">
         <v>2500</v>
       </c>
       <c r="R15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S15" s="3">
         <v>3200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3300</v>
       </c>
       <c r="T15" s="3">
         <v>3300</v>
       </c>
       <c r="U15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>693100</v>
+      </c>
+      <c r="E17" s="3">
         <v>648600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>566700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>553800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>541600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>535800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>577600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>574300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>573800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>545100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>547800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>548700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>539000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>493300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>472700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>407200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>419200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>398000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>413700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>373000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>16300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-33000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-25400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,25 +1447,26 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1441,306 +1475,321 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E21" s="3">
         <v>135200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>134100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>109800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>87500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>101300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>102900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>101200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>88200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>58200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>65400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>69400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E22" s="3">
         <v>6300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-35300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-64700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>18300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-35500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>17000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,17 +2086,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2043,14 +2104,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>6900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,25 +2261,28 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -2221,111 +2291,117 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E41" s="3">
         <v>275700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>295900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>317300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>350400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>232400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>304300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>261700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>161800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>242700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>160600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>130100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>284900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>369200</v>
+      </c>
+      <c r="E43" s="3">
         <v>364500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>238700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>202800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>249600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>270400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>330700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>316400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>294100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>303600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>295300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>268800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>236100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>267700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>228000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>251900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>215100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>263700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>254800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>348300</v>
+      </c>
+      <c r="E44" s="3">
         <v>349700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>336700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>334900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>332900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>312700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>294400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>283300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>269500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>263800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>234500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>230100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>232100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>220000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>196300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>182100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>181400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>177900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>163200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>158500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E45" s="3">
         <v>143200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>120000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>108200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>106000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>116300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>102700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>105000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>115800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>240400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>76400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>57800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1066400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1133000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>991200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>967600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1041100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>921500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1045700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>750200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>755600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>804200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>887200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>684700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>785800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>613900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>612600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>648300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>748400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>619700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>614900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>751700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,194 +3078,203 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>176900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>168800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>162200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>158700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>160200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>158400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>162100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>158900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>160700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>162600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>160600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>169500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>163800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>161000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>154000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>144300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>141900</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3805500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3734100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3390900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3304800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3188400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3020800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2895200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2825500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2683600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2536300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2125300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2053900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1950400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2037200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1962500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1854000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1740400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1693500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1648900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1586800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>722700</v>
+      </c>
+      <c r="E49" s="3">
         <v>735500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>421900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>425700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>424600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>424800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>417500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>418900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>415900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>418600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>411400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>407900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>410300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>414800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>415800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>409400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>398900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>388100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>381700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>377400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E52" s="3">
         <v>391900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>368500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>381800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>387100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>378500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>365300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>360700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>349800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>344300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>330700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>320600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>322700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>308900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>259400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>243000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>246700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>233100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>167300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>167100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5992900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5994500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5349500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5248700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5203400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4904400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4883900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4513700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4367100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4262300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3915300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3629700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3629600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3544300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3414100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3315600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3288200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3078700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2954700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2883100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,129 +3664,133 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E57" s="3">
         <v>204200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>122300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>169300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>176000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>183600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>152400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>141700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>145500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>157300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>160900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>165300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>157500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>115100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>101100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>84000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>79500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E58" s="3">
         <v>30300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>32300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>45300</v>
       </c>
       <c r="Q58" s="3">
         <v>45300</v>
       </c>
       <c r="R58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="S58" s="3">
         <v>45600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -3664,268 +3798,283 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>511100</v>
+      </c>
+      <c r="E59" s="3">
         <v>510000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>532800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>485600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>423000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>359800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>391200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>355900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>330000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>324900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>308300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>250400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>252300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>263700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>225900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>207000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>204200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>225000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>198800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>734300</v>
+      </c>
+      <c r="E60" s="3">
         <v>744600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>708400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>641600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>624600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>565200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>604600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>538400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>501700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>490100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>485500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>474900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>463400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>447200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>466500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>386600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>331000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>307500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>325500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>278600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2110600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2111800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1802700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1803700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1814700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1815500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1821700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1542700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1444000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1383000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1392900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1136800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1151600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1072900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>978400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>976100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>996500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>830800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>848500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>847100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E62" s="3">
         <v>481100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>451100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>456000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>456400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>424500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>407500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>407300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>415500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>416000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>120800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>132000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>130300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>132300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>121200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>117800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>113000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>109900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3358000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3374400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2998000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2930000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2923400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2831400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2856100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2507400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2376100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2299100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2007500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1749200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1754900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1661800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1576900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1482400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1443400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1251400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1220000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1172100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>269300</v>
+      </c>
+      <c r="E72" s="3">
         <v>266000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>249100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>241700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>234900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>233000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>245400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>243800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>237300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>234100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>245600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>243100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>252100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>277800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>286000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>308100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>332800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>346400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>297500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>290800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2634800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2620100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2351500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2318700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2280000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2073000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2027800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2006300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1990900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1963200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1907700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1880600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1874700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1882400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1837200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1833200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1844800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1827300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1734600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1710900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E83" s="3">
         <v>114800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>102500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>97000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>92600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>87100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>88800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>82300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>79500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>61600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>60900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>63900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>62500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>61600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E89" s="3">
         <v>65100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>169800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>223900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>176600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>156900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>143600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>110100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>136800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>46500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>112900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>103400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>53800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>76000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>96800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>153700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>98600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>121100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-202200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-246200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-171600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-229400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-217600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-208700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-145700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-218700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-163400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-166100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-145000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-158400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-186800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-146600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-157300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-147700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-96800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-109800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-139400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-147800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-214100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-399600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-182400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-243000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-230600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-229300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-163200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-232800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-177000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-185800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-149000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-138200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-160900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-174900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-166000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-115500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-128100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-251600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-164300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>315200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>171800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>276700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>83200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>254000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>77600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>91700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>164900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>277100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>118000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-71900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>256500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-131800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>218300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-90400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-80900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>82200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>30500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-154800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>233700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>719700</v>
+      </c>
+      <c r="E8" s="3">
         <v>701400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>664900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>595800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>575600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>554300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>530500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>591700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>588200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>592300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>537000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>557200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>554700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>517500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>438900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>439700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>381800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>393100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>380000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>416400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>380600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500100</v>
+      </c>
+      <c r="E9" s="3">
         <v>488400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>454000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>391300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>387300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>385600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>410900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>404200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>410100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>384500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>398000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>402700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>392100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>344900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>327300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>263700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>269300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>260500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>274100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>255500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E10" s="3">
         <v>213000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>210900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>195700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>184300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>144900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>180800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>184000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>152500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>159200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>152000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>94000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>112400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>118100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>123800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>119500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>142300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>125100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E12" s="3">
         <v>40500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>33400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>40100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>46300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>45100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>39900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>34400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,19 +1143,22 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3">
         <v>7100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1174,17 +1193,17 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>10200</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1195,19 +1214,22 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="3">
         <v>7400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1300</v>
       </c>
       <c r="G15" s="3">
         <v>1300</v>
@@ -1216,55 +1238,58 @@
         <v>1300</v>
       </c>
       <c r="I15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2000</v>
       </c>
       <c r="M15" s="3">
         <v>2000</v>
       </c>
       <c r="N15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O15" s="3">
         <v>2300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2500</v>
       </c>
       <c r="R15" s="3">
         <v>2500</v>
       </c>
       <c r="S15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T15" s="3">
         <v>3200</v>
-      </c>
-      <c r="T15" s="3">
-        <v>3300</v>
       </c>
       <c r="U15" s="3">
         <v>3300</v>
       </c>
       <c r="V15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W15" s="3">
         <v>3200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>715200</v>
+      </c>
+      <c r="E17" s="3">
         <v>693100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>648600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>566700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>553800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>541600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>535800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>577600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>574300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>573800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>545100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>547800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>548700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>539000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>493300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>472700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>407200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>419200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>398000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>413700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>373000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-54400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-33000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-25400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-26100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,28 +1480,29 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1478,318 +1511,333 @@
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E21" s="3">
         <v>135500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>135200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>134100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>87500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>101300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>102900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>76900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>90300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>58200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>45600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>65400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>69400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-64700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-36300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-23400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-25400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-29200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-26400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-26800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,17 +2149,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2107,14 +2167,14 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>6900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,28 +2330,31 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2294,114 +2363,120 @@
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-24600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-24600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E41" s="3">
         <v>217700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>295900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>317300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>350400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>232400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>304300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>261700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>161800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>242700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>160600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>130100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>284900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2886,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E43" s="3">
         <v>369200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>364500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>238700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>202800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>249600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>270400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>330700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>316400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>294100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>303600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>295300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>268800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>236100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>267700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>228000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>251900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>215100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>263700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>254800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E44" s="3">
         <v>348300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>349700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>336700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>334900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>332900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>312700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>294400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>283300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>269500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>263800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>234500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>230100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>232100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>220000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>196300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>182100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>181400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>177900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>163200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>158500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E45" s="3">
         <v>131200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>143200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>120000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>112500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>108200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>106000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>116300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>102700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>105000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>115800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>240400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>103000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>76400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>57800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>53600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1027900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1066400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1133000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>991200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>967600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1041100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>921500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1045700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>750200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>755600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>804200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>887200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>684700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>785800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>613900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>612600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>648300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>748400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>619700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>614900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>751700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,200 +3185,209 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>176900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>168800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>162200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>158700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>160200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>162100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>158900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>160700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>162600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>160600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>169500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>163800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>161000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>154000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>144300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>141900</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3947700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3805500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3734100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3390900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3304800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3188400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3020800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2895200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2825500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2683600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2536300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2125300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2053900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1950400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2037200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1962500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1854000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1740400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1693500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1648900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1586800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>714500</v>
+      </c>
+      <c r="E49" s="3">
         <v>722700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>735500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>421900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>425700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>424600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>424800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>417500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>418900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>415900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>418600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>411400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>407900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>410300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>414800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>415800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>409400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>398900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>388100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>381700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>377400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E52" s="3">
         <v>398200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>391900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>368500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>381800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>387100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>378500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>365300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>360700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>349800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>344300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>330700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>320600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>322700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>308900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>259400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>243000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>246700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>233100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>167300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>167100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6086800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5992900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5994500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5349500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5248700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5203400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4904400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4883900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4513700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4367100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4262300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3915300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3629700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3629600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3544300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3414100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3315600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3288200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3078700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2954700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2883100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,135 +3794,139 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>251300</v>
+      </c>
+      <c r="E57" s="3">
         <v>193200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>204200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>145100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>122300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>169300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>176000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>183600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>152400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>141700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>145500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>157300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>165300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>157500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>115100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>101100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>84000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>79500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E58" s="3">
         <v>30000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>45300</v>
       </c>
       <c r="R58" s="3">
         <v>45300</v>
       </c>
       <c r="S58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="T58" s="3">
         <v>45600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19300</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -3801,280 +3934,295 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>505700</v>
+      </c>
+      <c r="E59" s="3">
         <v>511100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>510000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>532800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>485600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>423000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>359800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>391200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>355900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>330000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>324900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>308300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>292300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>250400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>252300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>263700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>225900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>207000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>204200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>225000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>198800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>786600</v>
+      </c>
+      <c r="E60" s="3">
         <v>734300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>744600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>708400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>641600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>624600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>565200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>604600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>538400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>501700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>490100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>485500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>474900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>463400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>447200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>466500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>386600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>331000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>307500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>325500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>278600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2149400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2110600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2111800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1802700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1803700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1814700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1815500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1821700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1542700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1444000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1383000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1392900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1136800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1151600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1072900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>978400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>976100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>996500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>830800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>848500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>847100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E62" s="3">
         <v>474500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>481100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>451100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>456000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>456400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>424500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>407500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>407300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>415500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>416000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>132000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>130300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>132300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>121200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>117800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>113000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>109900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3452300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3358000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3374400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2998000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2930000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2923400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2831400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2856100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2507400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2376100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2299100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2007500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1749200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1754900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1661800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1576900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1482400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1443400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1251400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1220000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1172100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E72" s="3">
         <v>269300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>266000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>249100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>241700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>234900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>233000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>245400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>243800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>237300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>234100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>245600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>243100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>252100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>277800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>286000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>308100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>332800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>346400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>297500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>290800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2634500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2634800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2620100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2351500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2318700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2280000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2073000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2027800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2006300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1990900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1963200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1907700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1880600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1874700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1882400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1837200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1833200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1844800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1827300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1734600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1710900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-24600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E83" s="3">
         <v>127100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>114800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>102500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>97000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>92600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>87100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>80500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>61600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>60900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>63900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>62500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>61600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>158600</v>
+      </c>
+      <c r="E89" s="3">
         <v>162700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>65100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>169800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>176600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>156900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>143600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>136800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>46500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>112900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>103400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>53800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>76000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>96800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>153700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>98600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-202200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-246200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-171600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-229400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-217600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-208700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-145700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-218700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-163400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-166100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-145000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-158400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-186800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-146600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-157300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-147700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-96800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-109800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-139400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-147800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-237300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-214100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-399600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-182400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-243000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-230600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-229300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-163200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-232800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-177000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-185800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-149000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-138200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-160900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-174900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-166000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-115500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-128100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-251600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-164300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>315200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>171800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>276700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>83200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>254000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>77600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>91700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>164900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>277100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>118000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-71900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>256500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-131800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>218300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-90400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-80900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>82200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-154800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>233700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>678200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>701700</v>
+      </c>
+      <c r="F8" s="3">
         <v>719700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>701400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>664900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>595800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>575600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>554300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>530500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>591700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>588200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>592300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>537000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>557200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>554700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>517500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>438900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>439700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>381800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>393100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>380000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>416400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>380600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>482400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>497600</v>
+      </c>
+      <c r="F9" s="3">
         <v>500100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>488400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>454000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>391300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>387300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>385600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>410900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>404200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>410100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>384500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>398000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>402700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>392100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>344900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>327300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>263700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>269300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>260500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>274100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>255500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>204100</v>
+      </c>
+      <c r="F10" s="3">
         <v>219600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>213000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>210900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>195700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>184300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>167000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>144900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>180800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>184000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>182200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>152500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>159200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>152000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>125400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>94000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>112400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>118100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>123800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>119500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>142300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>125100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F12" s="3">
         <v>37300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>40500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>34500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>31800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>28800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>27500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>27600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>30500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>32200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>34300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>33500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>29400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>28900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>31400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>33400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>36900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>40100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>46300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>45100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>39900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>34400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,25 +1180,31 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>7200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1175,20 +1215,20 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1196,20 +1236,20 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>10200</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1226,70 +1272,76 @@
         <v>7500</v>
       </c>
       <c r="E15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G15" s="3">
         <v>7400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1300</v>
       </c>
       <c r="I15" s="3">
         <v>1300</v>
       </c>
       <c r="J15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L15" s="3">
         <v>1600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2400</v>
       </c>
       <c r="R15" s="3">
         <v>2500</v>
       </c>
       <c r="S15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>3300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>3300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>3200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>2800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>705300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>722500</v>
+      </c>
+      <c r="F17" s="3">
         <v>715200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>693100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>648600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>566700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>553800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>541600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>535800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>577600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>574300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>573800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>545100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>547800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>548700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>539000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>493300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>472700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>407200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>419200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>398000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>413700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>373000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>16300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>29100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-54400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-33000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-25400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-26100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-18000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>7600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1400</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>300</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>105200</v>
+      </c>
+      <c r="F21" s="3">
         <v>132500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>135500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>135200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>134100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>124400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>109800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>87500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>101300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>102900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>101200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>76900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>90300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>88200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>58200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>24400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>36800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>38100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>35700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>45600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>65400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>69400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>14900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>14100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>23600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-18300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-35300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-64700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-36300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-23400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-25400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-18400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>5500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>8900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-9700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-29200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-9900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-9200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>18300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-25600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-35500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-26400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-13400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-13900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-9200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>4600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-25700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-34000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-26800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-12400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-13700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-9000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>6700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2152,35 +2274,35 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>6900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-300</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-25700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-34000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-19900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-24600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-13700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-9000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>6700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-25700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-34000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-19900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-24600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-13700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-9000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>6700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>221500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>310500</v>
+      </c>
+      <c r="F41" s="3">
         <v>166000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>217700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>275700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>295900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>317300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>350400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>232400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>304300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>47800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>87000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>129900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>261700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>43400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>44500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>54800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>71400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>161800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>242700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>160600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>130100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>284900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +3069,553 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>359300</v>
+      </c>
+      <c r="F43" s="3">
         <v>363000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>369200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>364500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>238700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>202800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>249600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>270400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>330700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>316400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>294100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>303600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>295300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>268800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>236100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>267700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>228000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>251900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>215100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>263700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>254800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>341900</v>
+      </c>
+      <c r="F44" s="3">
         <v>354000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>348300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>349700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>336700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>334900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>332900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>312700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>294400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>283300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>269500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>263800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>234500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>230100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>232100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>220000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>196300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>182100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>181400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>177900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>163200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>158500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>147900</v>
+      </c>
+      <c r="F45" s="3">
         <v>144800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>131200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>143200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>120000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>112500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>108200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>106000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>116300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>102700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>105000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>106800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>90600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>115800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>240400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>103000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>77100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>76400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>72400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>66200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>57800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>53600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1128300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1159500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1027900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1066400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1133000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>991200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>967600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1041100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>921500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1045700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>750200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>755600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>804200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>887200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>684700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>785800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>613900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>612600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>648300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>748400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>619700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>614900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>751700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>176900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>168800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>162200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>158700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>160200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>158400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>162100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>158900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>160700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>162600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>160600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>169500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>163800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>161000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>154000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>144300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>141900</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4209900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4098100</v>
+      </c>
+      <c r="F48" s="3">
         <v>3947700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3805500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3734100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3390900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3304800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3188400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3020800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2895200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2825500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2683600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2536300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2125300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2053900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1950400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2037200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1962500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1854000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1740400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1693500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1648900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1586800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>696200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>710000</v>
+      </c>
+      <c r="F49" s="3">
         <v>714500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>722700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>735500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>421900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>425700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>424600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>424800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>417500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>418900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>415900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>418600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>411400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>407900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>410300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>414800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>415800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>409400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>398900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>388100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>381700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>377400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>420900</v>
+      </c>
+      <c r="F52" s="3">
         <v>396800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>398200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>391900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>368500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>381800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>387100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>378500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>365300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>360700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>349800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>344300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>330700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>320600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>322700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>308900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>259400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>243000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>246700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>233100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>167300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>167100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6483400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6389300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6086800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5992900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5994500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5349500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5248700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5203400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4904400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4883900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4513700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4367100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4262300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3915300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3629700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3629600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3544300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3414100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3315600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3288200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3078700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2954700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2883100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>219100</v>
+      </c>
+      <c r="F57" s="3">
         <v>251300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>193200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>204200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>145100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>122300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>169300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>176000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>183600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>152400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>141700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>145500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>157300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>160900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>165300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>149500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>157500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>115100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>101100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>84000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>100300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>79500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F58" s="3">
         <v>29600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>30000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>30300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>30500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>33700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>32300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>29800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>30000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>19700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>19900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>21800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>47700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>45300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>45300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>45600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>22900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>19300</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>441100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>516400</v>
+      </c>
+      <c r="F59" s="3">
         <v>505700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>511100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>510000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>532800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>485600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>423000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>359800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>391200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>355900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>330000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>324900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>308300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>292300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>250400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>252300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>263700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>225900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>207000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>204200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>225000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>198800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>726100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>770400</v>
+      </c>
+      <c r="F60" s="3">
         <v>786600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>734300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>744600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>708400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>641600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>624600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>565200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>604600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>538400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>501700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>490100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>485500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>474900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>463400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>447200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>466500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>386600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>331000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>307500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>325500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>278600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2589800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2451200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2149400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2110600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2111800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1802700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1803700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1814700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1815500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1821700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1542700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1444000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1383000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1392900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1136800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1151600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1072900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>978400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>976100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>996500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>830800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>848500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>847100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>465300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>485100</v>
+      </c>
+      <c r="F62" s="3">
         <v>475000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>474500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>481100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>451100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>456000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>456400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>424500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>407500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>407300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>415500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>416000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>120800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>132000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>130300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>132300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>121200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>117800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>113000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>109900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>42700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>40700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3830500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3755500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3452300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3358000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3374400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2998000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2930000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2923400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2831400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2856100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2507400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2376100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2299100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2007500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1749200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1754900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1661800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1576900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1482400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1443400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1251400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1220000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1172100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>233500</v>
+      </c>
+      <c r="F72" s="3">
         <v>262700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>269300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>266000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>249100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>241700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>234900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>233000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>245400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>243800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>237300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>234100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>245600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>243100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>252100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>277800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>286000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>308100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>332800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>346400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>297500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>290800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2652900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2633900</v>
+      </c>
+      <c r="F76" s="3">
         <v>2634500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2634800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2620100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2351500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2318700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2280000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2073000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2027800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2006300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1990900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1963200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1907700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1880600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1874700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1882400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1837200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1833200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1844800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1827300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1734600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1710900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-25700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-34000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-19900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-24600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-13700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-9000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>6700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F83" s="3">
         <v>127600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>127100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>114800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>105000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>102500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>97000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>92600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>87100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>88800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>82300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>84000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>80500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>80800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>79500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>77800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>69300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>61600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>60900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>63900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>62500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>61600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>119300</v>
+      </c>
+      <c r="F89" s="3">
         <v>158600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>162700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>65100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>169800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>223900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>176600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>156900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>143600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>110100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>136800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>46500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>112900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>103400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>57500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>53800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>76000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>96800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>32200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>153700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>98600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>121100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-267100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-222900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-202200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-246200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-171600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-229400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-217600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-208700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-145700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-218700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-163400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-166100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-145000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-158400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-186800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-146600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-157300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-147700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-96800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-109800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-139400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-147800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-270900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-278900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-237300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-214100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-399600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-182400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-243000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-230600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-229300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-163200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-232800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-177000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-185800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-149000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-138200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-160900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-174900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-166000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-115500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-128100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-251600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-164300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>305400</v>
+      </c>
+      <c r="F100" s="3">
         <v>27900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>315200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>171800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>276700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>83200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>254000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>77600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>91700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>7800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-11900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>164900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>4900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>277100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-500</v>
       </c>
       <c r="L101" s="3">
         <v>300</v>
       </c>
       <c r="M101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>300</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>200</v>
       </c>
       <c r="U101" s="3">
         <v>600</v>
       </c>
       <c r="V101" s="3">
+        <v>200</v>
+      </c>
+      <c r="W101" s="3">
+        <v>600</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>144400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-51600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-58000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-20300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-21400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-33100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>118000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-71900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>256500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-39300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-42800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-131800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>218300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-16700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-90400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-80900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>82200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>30500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-154800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>233700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>678200</v>
+        <v>651400</v>
       </c>
       <c r="E8" s="3">
+        <v>656700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>571400</v>
+      </c>
+      <c r="G8" s="3">
         <v>701700</v>
       </c>
-      <c r="F8" s="3">
-        <v>719700</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>625300</v>
+      </c>
+      <c r="I8" s="3">
         <v>701400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>664900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>595800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>575600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>554300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>530500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>591700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>588200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>592300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>537000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>557200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>554700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>517500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>438900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>439700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>381800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>393100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>380000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>416400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>380600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>482400</v>
+        <v>483000</v>
       </c>
       <c r="E9" s="3">
+        <v>438600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>416000</v>
+      </c>
+      <c r="G9" s="3">
         <v>497600</v>
       </c>
-      <c r="F9" s="3">
-        <v>500100</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>444200</v>
+      </c>
+      <c r="I9" s="3">
         <v>488400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>454000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>391300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>387300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>385600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>410900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>404200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>410100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>384500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>398000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>402700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>392100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>344900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>327300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>263700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>269300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>260500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>274100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>255500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>195800</v>
+        <v>168400</v>
       </c>
       <c r="E10" s="3">
+        <v>218100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>155400</v>
+      </c>
+      <c r="G10" s="3">
         <v>204100</v>
       </c>
-      <c r="F10" s="3">
-        <v>219600</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>181100</v>
+      </c>
+      <c r="I10" s="3">
         <v>213000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>210900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>195700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>184300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>167000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>144900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>180800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>184000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>182200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>152500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>159200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>152000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>125400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>94000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>112400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>118100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>123800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>119500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>142300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>125100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35800</v>
+        <v>29400</v>
       </c>
       <c r="E12" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>34800</v>
+      </c>
+      <c r="G12" s="3">
         <v>40900</v>
       </c>
-      <c r="F12" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>36400</v>
+      </c>
+      <c r="I12" s="3">
         <v>40500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>34500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>31800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>28800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>27500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>27600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>30500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>32200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>34300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>33500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>29400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>28900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>31400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>33400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>36900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>40100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>46300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>45100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>39900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>34400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>7200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1221,20 +1260,20 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1242,20 +1281,20 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>10200</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1263,85 +1302,97 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E15" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="F15" s="3">
         <v>7500</v>
       </c>
       <c r="G15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I15" s="3">
         <v>7400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1300</v>
       </c>
       <c r="K15" s="3">
         <v>1300</v>
       </c>
       <c r="L15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N15" s="3">
         <v>1600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2400</v>
       </c>
       <c r="T15" s="3">
         <v>2500</v>
       </c>
       <c r="U15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X15" s="3">
         <v>3200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>3300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>3300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>3200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>2800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>705300</v>
+        <v>682800</v>
       </c>
       <c r="E17" s="3">
+        <v>655500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>629900</v>
+      </c>
+      <c r="G17" s="3">
         <v>722500</v>
       </c>
-      <c r="F17" s="3">
-        <v>715200</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>654000</v>
+      </c>
+      <c r="I17" s="3">
         <v>693100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>648600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>566700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>553800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>541600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>535800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>577600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>574300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>573800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>545100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>547800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>548700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>539000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>493300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>472700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>407200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>419200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>398000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>413700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>373000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-27100</v>
+        <v>-31400</v>
       </c>
       <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-20800</v>
       </c>
-      <c r="F18" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>29100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>21800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>18500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>9400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-54400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-33000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-25400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-26100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>7600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1614,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1400</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
       <c r="T20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U20" s="3">
+        <v>300</v>
+      </c>
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>300</v>
       </c>
       <c r="AA20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98200</v>
+        <v>94200</v>
       </c>
       <c r="E21" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>66700</v>
+      </c>
+      <c r="G21" s="3">
         <v>105200</v>
       </c>
-      <c r="F21" s="3">
-        <v>132500</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>99300</v>
+      </c>
+      <c r="I21" s="3">
         <v>135500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>135200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>134100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>124400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>109800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>87500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>101300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>102900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>101200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>76900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>90300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>88200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>58200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>24400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>36800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>38100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>35700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>45600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>65400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>69400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F22" s="3">
         <v>5900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>6300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>11200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>14900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>14100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>11300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>2400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31800</v>
+        <v>-39500</v>
       </c>
       <c r="E23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-32400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-35300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-64700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-36300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-23400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-25400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-18400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>5500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-10800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-9700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-29200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-9900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-11500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-21000</v>
+        <v>-44700</v>
       </c>
       <c r="E26" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-21600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>18300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-10700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-25600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-35500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-26400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-13400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-13900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>4200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>4600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-21600</v>
+        <v>-46600</v>
       </c>
       <c r="E27" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-29200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-25700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-34000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-26800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-12400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-13700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>6700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>4200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,31 +2357,37 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>18600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>26500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2280,35 +2401,35 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>6900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1400</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
       <c r="T32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-300</v>
       </c>
       <c r="AA32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-29200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-25700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-34000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-19900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-24600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-13700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>6700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>4200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-29200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-25700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-34000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-19900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-24600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-13700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>6700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>4200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>149200</v>
+      </c>
+      <c r="F41" s="3">
         <v>221500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>310500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>166000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>217700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>275700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>295900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>317300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>350400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>232400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>304300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>47800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>87000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>129900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>261700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>43400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>44500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>54800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>71400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>161800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>242700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>160600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>130100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>284900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3254,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>368800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>320200</v>
+      </c>
+      <c r="F43" s="3">
         <v>372100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>359300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>363000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>369200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>364500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>238700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>202800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>249600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>270400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>330700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>316400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>294100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>303600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>295300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>268800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>236100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>267700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>228000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>251900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>215100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>263700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>254800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>260900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>244300</v>
+      </c>
+      <c r="F44" s="3">
         <v>362000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>341900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>354000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>348300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>349700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>336700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>334900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>332900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>312700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>294400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>283300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>269500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>263800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>234500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>230100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>232100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>220000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>196300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>182100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>181400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>177900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>163200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>158500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>440300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>433400</v>
+      </c>
+      <c r="F45" s="3">
         <v>172700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>147900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>144800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>131200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>143200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>120000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>112500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>108200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>106000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>116300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>102700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>105000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>106800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>90600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>115800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>240400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>103000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>77100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>76400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>72400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>66200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>57800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>53600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1252200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1147100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1128300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1159500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1027900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1066400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1133000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>991200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>967600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1041100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>921500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1045700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>750200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>755600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>804200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>887200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>684700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>785800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>613900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>612600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>648300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>748400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>619700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>614900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>751700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>176900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>168800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>162200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>158700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>160200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>158400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>162100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>158900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>160700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>162600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>160600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>169500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>163800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>161000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>154000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>144300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>141900</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="3" t="s">
+      <c r="AC47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4508500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4320700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4209900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4098100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3947700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3805500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3734100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3390900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3304800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3188400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3020800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2895200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2825500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2683600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2536300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2125300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2053900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1950400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2037200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1962500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1854000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1740400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1693500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1648900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1586800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>667900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>662400</v>
+      </c>
+      <c r="F49" s="3">
         <v>696200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>710000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>714500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>722700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>735500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>421900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>425700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>424600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>424800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>417500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>418900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>415900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>418600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>411400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>407900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>410300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>414800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>415800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>409400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>398900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>388100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>381700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>377400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>373300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>380200</v>
+      </c>
+      <c r="F52" s="3">
         <v>449000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>420900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>396800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>398200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>391900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>368500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>381800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>387100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>378500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>365300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>360700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>349800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>344300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>330700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>320600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>322700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>308900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>259400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>243000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>246700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>233100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>167300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>167100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6801900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6510300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6483400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6389300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6086800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5992900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5994500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5349500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5248700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5203400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4904400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4883900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4513700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4367100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4262300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3915300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3629700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3629600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3544300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3414100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3315600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3288200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3078700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2954700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2883100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>244900</v>
+      </c>
+      <c r="F57" s="3">
         <v>246500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>219100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>251300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>193200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>204200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>145100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>122300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>169300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>176000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>183600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>152400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>141700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>145500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>157300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>160900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>165300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>149500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>157500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>115100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>101100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>84000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>100300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>79500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F58" s="3">
         <v>38500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>34900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>29600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>30000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>30300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>30500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>33700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>32300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>29500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>29800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>30100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>30000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>19700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>19900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>21800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>47700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>45300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>45300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>45600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>22900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>19300</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>509800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>520100</v>
+      </c>
+      <c r="F59" s="3">
         <v>441100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>516400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>505700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>511100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>510000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>532800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>485600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>423000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>359800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>391200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>355900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>330000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>324900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>308300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>292300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>250400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>252300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>263700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>225900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>207000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>204200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>225000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>198800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>851200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>803600</v>
+      </c>
+      <c r="F60" s="3">
         <v>726100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>770400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>786600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>734300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>744600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>708400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>641600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>624600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>565200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>604600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>538400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>501700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>490100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>485500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>474900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>463400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>447200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>466500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>386600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>331000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>307500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>325500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>278600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2899000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2647000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2589800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2451200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2149400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2110600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2111800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1802700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1803700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1814700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1815500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1821700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1542700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1444000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1383000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1392900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1136800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1151600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1072900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>978400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>976100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>996500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>830800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>848500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>847100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>429500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>431500</v>
+      </c>
+      <c r="F62" s="3">
         <v>465300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>485100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>475000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>474500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>481100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>451100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>456000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>456400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>424500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>407500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>407300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>415500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>416000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>120800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>132000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>130300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>132300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>121200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>117800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>113000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>109900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>42700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>40700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4213200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3913700</v>
+      </c>
+      <c r="F66" s="3">
         <v>3830500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3755500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3452300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3358000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3374400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2998000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2930000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2923400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2831400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2856100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2507400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2376100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2299100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2007500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1749200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1754900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1661800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1576900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1482400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1443400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1251400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1220000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1172100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>163700</v>
+      </c>
+      <c r="F72" s="3">
         <v>212000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>233500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>262700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>269300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>266000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>249100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>241700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>234900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>233000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>245400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>243800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>237300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>234100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>245600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>243100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>252100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>277800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>286000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>308100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>332800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>346400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>297500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>290800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2588800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2596600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2652900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2633900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2634500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2634800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2620100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2351500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2318700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2280000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2073000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2027800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2006300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1990900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1963200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1907700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1880600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1874700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1882400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1837200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1833200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1844800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1827300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1734600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1710900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-29200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-25700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-34000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-19900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-24600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-13700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>6700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>4200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>124400</v>
+      </c>
+      <c r="F83" s="3">
         <v>124100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>126000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>127600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>127100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>114800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>105000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>102500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>97000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>92600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>87100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>88800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>82300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>84000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>80500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>80800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>79500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>77800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>69300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>61600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>60900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>63900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>62500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>61600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>188500</v>
+      </c>
+      <c r="F89" s="3">
         <v>39600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>119300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>158600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>162700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>65100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>169800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>223900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>176600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>156900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>143600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>110100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>136800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>46500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>112900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>103400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>57500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>53800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>76000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>96800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>32200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>153700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>98600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>121100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-274500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-261200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-246900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-267100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-222900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-202200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-246200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-171600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-229400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-217600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-208700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-145700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-218700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-163400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-166100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-145000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-158400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-186800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-146600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-157300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-147700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-96800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-109800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-139400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-147800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-270900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-278900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-237300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-214100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-399600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-182400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-243000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-230600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-229300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-163200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-232800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-177000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-185800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-149000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-41400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-138200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-160900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-174900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-166000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-115500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-128100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-251600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-164300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F100" s="3">
         <v>144200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>305400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>27900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>315200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>171800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>276700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>83200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>254000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-68600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>77600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>91700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>7800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-11900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>164900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>277100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-500</v>
       </c>
       <c r="N101" s="3">
         <v>300</v>
       </c>
       <c r="O101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P101" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U101" s="3">
-        <v>600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>200</v>
       </c>
       <c r="W101" s="3">
         <v>600</v>
       </c>
       <c r="X101" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-88900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>144400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-51600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-58000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-20300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-21400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>118000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-71900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>256500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-39300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-42800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-131800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>218300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-16700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-90400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-80900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>82200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>30500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-154800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>233700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-274500</v>
+        <v>-295900</v>
       </c>
       <c r="E91" s="3">
-        <v>-261200</v>
+        <v>-284000</v>
       </c>
       <c r="F91" s="3">
-        <v>-246900</v>
+        <v>-270900</v>
       </c>
       <c r="G91" s="3">
-        <v>-267100</v>
+        <v>-278100</v>
       </c>
       <c r="H91" s="3">
-        <v>-222900</v>
+        <v>-237300</v>
       </c>
       <c r="I91" s="3">
-        <v>-202200</v>
+        <v>-214100</v>
       </c>
       <c r="J91" s="3">
-        <v>-246200</v>
+        <v>-260900</v>
       </c>
       <c r="K91" s="3">
         <v>-171600</v>

--- a/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VSAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>VSAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>779800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>666100</v>
+      </c>
+      <c r="F8" s="3">
         <v>651400</v>
       </c>
-      <c r="E8" s="3">
-        <v>656700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>571400</v>
-      </c>
       <c r="G8" s="3">
-        <v>701700</v>
+        <v>1238600</v>
       </c>
       <c r="H8" s="3">
+        <v>575100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>606700</v>
+      </c>
+      <c r="J8" s="3">
         <v>625300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>701400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>664900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>595800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>575600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>554300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>530500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>591700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>588200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>592300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>537000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>557200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>554700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>517500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>438900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>439700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>381800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>393100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>380000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>416400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>380600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>399200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>544900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>492100</v>
+      </c>
+      <c r="F9" s="3">
         <v>483000</v>
       </c>
-      <c r="E9" s="3">
-        <v>438600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>416000</v>
-      </c>
       <c r="G9" s="3">
-        <v>497600</v>
+        <v>859700</v>
       </c>
       <c r="H9" s="3">
+        <v>417800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>436000</v>
+      </c>
+      <c r="J9" s="3">
         <v>444200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>488400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>454000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>391300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>387300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>385600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>410900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>404200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>410100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>384500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>398000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>402700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>392100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>344900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>327300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>263700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>269300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>260500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>274100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>255500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>271100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>174000</v>
+      </c>
+      <c r="F10" s="3">
         <v>168400</v>
       </c>
-      <c r="E10" s="3">
-        <v>218100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>155400</v>
-      </c>
       <c r="G10" s="3">
-        <v>204100</v>
+        <v>378900</v>
       </c>
       <c r="H10" s="3">
+        <v>157300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>170700</v>
+      </c>
+      <c r="J10" s="3">
         <v>181100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>213000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>210900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>195700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>184300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>167000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>144900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>180800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>184000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>182200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>152500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>159200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>152000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>125400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>94000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>112400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>118100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>123800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>119500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>142300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>125100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>128100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F12" s="3">
         <v>29400</v>
       </c>
-      <c r="E12" s="3">
-        <v>32400</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>67200</v>
+      </c>
+      <c r="H12" s="3">
         <v>34800</v>
       </c>
-      <c r="G12" s="3">
-        <v>40900</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J12" s="3">
         <v>36400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>40500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>34500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>31800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>28800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>27500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>27600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>30500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>32200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>34300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>33500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>29400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>28900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>31400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>33400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>36900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>40100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>46300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>45100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>39900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>34400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,13 +1259,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1243,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1266,20 +1306,20 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1287,20 +1327,20 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>10200</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1308,91 +1348,103 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F15" s="3">
         <v>7400</v>
       </c>
-      <c r="E15" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7500</v>
-      </c>
       <c r="G15" s="3">
-        <v>7900</v>
+        <v>14900</v>
       </c>
       <c r="H15" s="3">
         <v>7500</v>
       </c>
       <c r="I15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K15" s="3">
         <v>7400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1300</v>
       </c>
       <c r="M15" s="3">
         <v>1300</v>
       </c>
       <c r="N15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P15" s="3">
         <v>1600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2400</v>
       </c>
       <c r="V15" s="3">
         <v>2500</v>
       </c>
       <c r="W15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X15" s="3">
         <v>2500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z15" s="3">
         <v>3200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>3300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>3300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>3200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>2800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>821300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>738800</v>
+      </c>
+      <c r="F17" s="3">
         <v>682800</v>
       </c>
-      <c r="E17" s="3">
-        <v>655500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>629900</v>
-      </c>
       <c r="G17" s="3">
-        <v>722500</v>
+        <v>1290600</v>
       </c>
       <c r="H17" s="3">
+        <v>631700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>655400</v>
+      </c>
+      <c r="J17" s="3">
         <v>654000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>693100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>648600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>566700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>553800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>541600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>535800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>577600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>574300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>573800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>545100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>547800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>548700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>539000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>493300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>472700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>407200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>419200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>398000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>413700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>373000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>380700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31400</v>
       </c>
-      <c r="E18" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-58500</v>
-      </c>
       <c r="G18" s="3">
-        <v>-20800</v>
+        <v>-52000</v>
       </c>
       <c r="H18" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-28700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>29100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>21800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>14100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>18500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-21500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-54400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-33000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-25400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-26100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>7600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1682,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1200</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1400</v>
       </c>
       <c r="U20" s="3">
         <v>300</v>
       </c>
       <c r="V20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W20" s="3">
+        <v>300</v>
+      </c>
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>300</v>
       </c>
       <c r="AC20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>66300</v>
+      </c>
+      <c r="F21" s="3">
         <v>94200</v>
       </c>
-      <c r="E21" s="3">
-        <v>132400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>66700</v>
-      </c>
       <c r="G21" s="3">
-        <v>105200</v>
+        <v>204600</v>
       </c>
       <c r="H21" s="3">
+        <v>68600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>77300</v>
+      </c>
+      <c r="J21" s="3">
         <v>99300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>135500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>135200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>134100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>124400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>109800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>87500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>101300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>102900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>101200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>76900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>90300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>88200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>58200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>24400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>36800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>38100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>35700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>45600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>65400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>69400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>80500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F22" s="3">
         <v>8700</v>
       </c>
-      <c r="E22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H22" s="3">
         <v>5900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>11600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>5400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>9300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>9500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>14900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>14100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>11300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3800</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>2400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-39500</v>
       </c>
-      <c r="E23" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-63200</v>
-      </c>
       <c r="G23" s="3">
-        <v>-32400</v>
+        <v>-54400</v>
       </c>
       <c r="H23" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-33800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-18300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-35300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-64700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-36300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-25400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>5500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
-        <v>76100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-23600</v>
-      </c>
       <c r="G24" s="3">
-        <v>-10800</v>
+        <v>53800</v>
       </c>
       <c r="H24" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-9700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-29200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-9900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-44700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-72700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-39700</v>
-      </c>
       <c r="G26" s="3">
-        <v>-21600</v>
+        <v>-108300</v>
       </c>
       <c r="H26" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-30400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-10700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-25600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-35500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-26400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>4200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>4600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-46600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-73400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-40200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-29200</v>
+        <v>-109500</v>
       </c>
       <c r="H27" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-33100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-11500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-25700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-34000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-26800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>6700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>4200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,79 +2479,85 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="F29" s="3">
         <v>4300</v>
       </c>
-      <c r="E29" s="3">
-        <v>25200</v>
-      </c>
-      <c r="F29" s="3">
-        <v>18600</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>39700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>26500</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>6900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-12200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-8000</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1400</v>
       </c>
       <c r="U32" s="3">
         <v>-300</v>
       </c>
       <c r="V32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-300</v>
       </c>
       <c r="AC32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1196800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-42200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-48200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-21600</v>
-      </c>
       <c r="G33" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-29200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-11500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-25700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-34000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-19900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>6700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>4200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1196800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-42200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-48200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-21600</v>
-      </c>
       <c r="G35" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-29200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-11500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-25700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-34000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-19900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>6700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>4200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,114 +3266,122 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1958500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="F41" s="3">
         <v>182100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>149200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>221500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>310500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>166000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>217700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>275700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>295900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>317300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>350400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>232400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>304300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>47800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>87000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>129900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>261700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>43400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>44500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>54800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>71400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>161800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>242700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>160600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>130100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>284900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>134300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3260,340 +3440,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>630500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>419900</v>
+      </c>
+      <c r="F43" s="3">
         <v>368800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>320200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>372100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>359300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>363000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>369200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>364500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>238700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>202800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>249600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>270400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>330700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>316400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>294100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>303600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>295300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>268800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>236100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>267700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>228000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>251900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>215100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>263700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>254800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>335600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>268600</v>
+      </c>
+      <c r="F44" s="3">
         <v>260900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>244300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>362000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>341900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>354000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>348300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>349700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>336700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>334900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>332900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>312700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>294400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>283300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>269500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>263800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>234500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>230100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>232100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>220000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>196300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>182100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>181400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>177900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>163200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>158500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>367600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>207200</v>
+      </c>
+      <c r="F45" s="3">
         <v>440300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>433400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>172700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>147900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>144800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>131200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>143200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>120000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>112500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>108200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>106000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>116300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>102700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>105000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>106800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>90600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>115800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>240400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>103000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>77100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>76400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>72400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>66200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>57800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>53600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3426500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2244500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1252200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1147100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1128300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1159500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1027900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1066400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1133000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>991200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>967600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1041100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>921500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1045700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>750200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>755600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>804200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>887200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>684700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>785800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>613900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>612600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>648300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>748400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>619700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>614900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>751700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>528700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3606,243 +3816,261 @@
       <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>176900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>168800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>162200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>158700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>160200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>158400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>162100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>158900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>160700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>162600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>160600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>169500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>163800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>161000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>154000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>144300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>141900</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AD47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AE47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9605500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4660000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4508500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4320700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4209900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4098100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3947700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3805500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3734100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3390900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3304800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3188400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3020800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2895200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2825500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2683600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2536300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2125300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2053900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1950400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2037200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1962500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1854000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1740400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1693500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1648900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1586800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1539600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4439000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>655800</v>
+      </c>
+      <c r="F49" s="3">
         <v>667900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>662400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>696200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>710000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>714500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>722700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>735500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>421900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>425700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>424600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>424800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>417500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>418900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>415900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>418600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>411400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>407900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>410300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>414800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>415800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>409400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>398900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>388100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>381700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>377400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>349300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>426600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F52" s="3">
         <v>373300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>380200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>449000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>420900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>396800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>398200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>391900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>368500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>381800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>387100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>378500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>365300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>360700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>349800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>344300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>330700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>320600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>322700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>308900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>259400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>243000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>246700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>233100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>167300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>167100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>165700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17897600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7730300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6801900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6510300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6483400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6389300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6086800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5992900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5994500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5349500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5248700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5203400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4904400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4883900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4513700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4367100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4262300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3915300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3629700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3629600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3544300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3414100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3315600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3288200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3078700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2954700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>2883100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>2583200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>271500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>244900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>246500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>219100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>251300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>193200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>204200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>145100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>122300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>169300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>176000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>183600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>152400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>141700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>145500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>157300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>160900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>165300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>149500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>157500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>115100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>101100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>84000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>100300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>79500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>97800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>37900</v>
+      </c>
+      <c r="F58" s="3">
         <v>41300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>38600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>38500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>34900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>29600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>30000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>30300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>30500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>33700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>32300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>29500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>29800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>30100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>30000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>19700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>19900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>21800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>47700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>45300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>45300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>45600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>22900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>19300</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>300</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>300</v>
       </c>
       <c r="AC58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1034100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>647200</v>
+      </c>
+      <c r="F59" s="3">
         <v>509800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>520100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>441100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>516400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>505700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>511100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>510000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>532800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>485600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>423000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>359800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>391200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>355900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>330000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>324900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>308300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>292300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>250400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>252300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>263700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>225900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>207000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>204200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>225000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>198800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>186100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1471500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>956700</v>
+      </c>
+      <c r="F60" s="3">
         <v>851200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>803600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>726100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>770400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>786600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>734300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>744600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>708400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>641600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>624600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>565200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>604600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>538400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>501700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>490100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>485500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>474900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>463400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>447200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>466500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>386600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>331000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>307500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>325500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>278600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>284200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7218300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2421500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2899000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2647000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2589800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2451200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2149400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2110600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2111800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1802700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1803700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1814700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1815500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1821700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1542700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1444000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1383000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1392900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1136800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1151600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1072900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>978400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>976100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>996500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>830800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>848500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>847100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1060500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3232000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>491500</v>
+      </c>
+      <c r="F62" s="3">
         <v>429500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>431500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>465300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>485100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>475000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>474500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>481100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>451100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>456000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>456400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>424500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>407500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>407300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>415500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>416000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>120800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>132000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>130300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>132300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>121200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>117800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>113000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>109900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>42700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>40700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11958100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3906000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4213200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3913700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3830500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3755500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3452300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3358000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3374400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2998000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2930000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2923400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2831400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2856100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2507400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2376100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2299100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2007500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1749200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1754900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1661800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1576900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1482400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1443400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1251400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1220000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1172100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1388600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1241300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1318300</v>
+      </c>
+      <c r="F72" s="3">
         <v>121500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>163700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>212000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>233500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>262700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>269300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>266000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>249100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>241700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>234900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>233000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>245400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>243800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>237300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>234100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>245600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>243100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>252100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>277800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>286000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>308100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>332800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>346400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>297500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>290800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>286600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5939500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3824300</v>
+      </c>
+      <c r="F76" s="3">
         <v>2588800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2596600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2652900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2633900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2634500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2634800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2620100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2351500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2318700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2280000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2073000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2027800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2006300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1990900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1963200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1907700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1880600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1874700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1882400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1837200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1833200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1844800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1827300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1734600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1710900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1194600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1196800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-42200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-48200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-21600</v>
-      </c>
       <c r="G81" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-29200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-11500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-25700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-34000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-19900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-24600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>6700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>4200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>174600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>126900</v>
+      </c>
+      <c r="F83" s="3">
         <v>125000</v>
       </c>
-      <c r="E83" s="3">
-        <v>124400</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>248500</v>
+      </c>
+      <c r="H83" s="3">
         <v>124100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>126000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>127600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>127100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>114800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>105000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>102500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>97000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>92600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>87100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>88800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>82300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>84000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>80500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>80800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>79500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>77800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>69300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>61600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>60900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>63900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>62500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>61600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>50200</v>
+      </c>
+      <c r="F89" s="3">
         <v>89500</v>
       </c>
-      <c r="E89" s="3">
-        <v>188500</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>228100</v>
+      </c>
+      <c r="H89" s="3">
         <v>39600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>119300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>158600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>162700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>65100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>169800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>223900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>176600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>156900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>143600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>110100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>136800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>46500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>112900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>103400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>57500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>53800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>76000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>96800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>32200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>153700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>98600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>121100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-374900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-313600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-295900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-284000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-270900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-278100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-237300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-214100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-260900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-171600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-229400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-217600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-208700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-145700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-218700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-163400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-166100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-145000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-158400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-186800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-146600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-157300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-147700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-96800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-109800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-139400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-147800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-156900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-769500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1618800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-295900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-284000</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-554800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-270900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-278900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-237300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-214100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-399600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-182400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-243000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-230600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-229300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-163200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-232800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-177000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-185800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-149000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-41400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-138200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-160900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-174900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-166000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-115500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-128100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-251600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-164300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-157000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1278300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-472100</v>
+      </c>
+      <c r="F100" s="3">
         <v>237600</v>
       </c>
-      <c r="E100" s="3">
-        <v>24200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>168400</v>
+      </c>
+      <c r="H100" s="3">
         <v>144200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>305400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>27900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>315200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>171800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>276700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>83200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>254000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-68600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>77600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>91700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>7800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>164900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>4900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>277100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-500</v>
       </c>
       <c r="P101" s="3">
         <v>300</v>
       </c>
       <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>300</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1300</v>
-      </c>
-      <c r="W101" s="3">
-        <v>600</v>
-      </c>
-      <c r="X101" s="3">
-        <v>200</v>
       </c>
       <c r="Y101" s="3">
         <v>600</v>
       </c>
       <c r="Z101" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-200</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>613100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1197300</v>
+      </c>
+      <c r="F102" s="3">
         <v>33000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-72300</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-161300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-88900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>144400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-51600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-20300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-21400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-33100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>118000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-71900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>256500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-42800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-131800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>218300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-8300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-16700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-90400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-80900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>82200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>30500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-154800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>233700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>4000</v>
       </c>
     </row>
